--- a/HasmParser/Resources/Instructionset with Encoding.xlsx
+++ b/HasmParser/Resources/Instructionset with Encoding.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Documents\Programming\C#\Language\HomebrewAssembler\hasm\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joell\Documents\Programming\C#\Language\hasm\HasmParser\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="218">
   <si>
     <t>Instruction</t>
   </si>
@@ -704,6 +704,12 @@
   </si>
   <si>
     <t>SBIS SPC, IMM12</t>
+  </si>
+  <si>
+    <t>POPS  SPC</t>
+  </si>
+  <si>
+    <t>PUSHS SPC</t>
   </si>
 </sst>
 </file>
@@ -1159,6 +1165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1194,6 +1217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1348,21 +1388,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="7" width="4.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" customWidth="1"/>
+    <col min="4" max="7" width="4.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1423,7 @@
       </c>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1406,7 +1446,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>133</v>
       </c>
@@ -1435,7 +1475,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1498,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1550,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -1539,7 +1579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1585,7 +1625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1654,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
@@ -1643,7 +1683,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1666,7 +1706,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1695,7 +1735,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1758,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1787,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1810,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1799,7 +1839,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1822,7 +1862,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
@@ -1845,7 +1885,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>136</v>
       </c>
@@ -1874,7 +1914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>190</v>
       </c>
@@ -1903,7 +1943,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1920,7 +1960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1937,7 +1977,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -1954,7 +1994,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
@@ -1971,7 +2011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
@@ -1988,7 +2028,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -2005,7 +2045,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>137</v>
       </c>
@@ -2022,7 +2062,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
@@ -2039,7 +2079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>107</v>
       </c>
@@ -2056,7 +2096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>197</v>
       </c>
@@ -2079,7 +2119,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -2108,7 +2148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>198</v>
       </c>
@@ -2131,7 +2171,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -2160,7 +2200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -2175,7 +2215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>201</v>
       </c>
@@ -2198,7 +2238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>87</v>
       </c>
@@ -2227,9 +2267,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>92</v>
@@ -2244,9 +2284,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>95</v>
@@ -2261,7 +2301,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -2284,7 +2324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -2307,7 +2347,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
@@ -2330,7 +2370,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>152</v>
       </c>
@@ -2353,7 +2393,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -2370,7 +2410,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>155</v>
       </c>
@@ -2393,7 +2433,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>158</v>
       </c>
@@ -2416,7 +2456,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>119</v>
       </c>
@@ -2439,7 +2479,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>122</v>
       </c>
@@ -2462,7 +2502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>168</v>
       </c>
@@ -2485,7 +2525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>166</v>
       </c>
@@ -2508,7 +2548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>163</v>
       </c>
@@ -2531,7 +2571,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>124</v>
       </c>
@@ -2554,7 +2594,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>170</v>
       </c>
@@ -2577,7 +2617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>174</v>
       </c>
@@ -2600,7 +2640,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>176</v>
       </c>
@@ -2623,7 +2663,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>177</v>
       </c>
@@ -2646,7 +2686,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>183</v>
       </c>
@@ -2669,7 +2709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>182</v>
       </c>
@@ -2692,7 +2732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>202</v>
       </c>
@@ -2715,7 +2755,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>207</v>
       </c>
@@ -2744,7 +2784,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>215</v>
       </c>
@@ -2773,7 +2813,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>212</v>
       </c>
@@ -2802,7 +2842,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>188</v>
       </c>
@@ -2840,14 +2880,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2880,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>115</v>
       </c>
@@ -2913,7 +2953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>207</v>
       </c>
@@ -2924,7 +2964,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2935,7 +2975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
@@ -2946,7 +2986,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>158</v>
       </c>
@@ -2957,7 +2997,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>119</v>
       </c>
@@ -2968,7 +3008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>122</v>
       </c>
@@ -2979,7 +3019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>85</v>
       </c>
@@ -2988,7 +3028,7 @@
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>124</v>
       </c>
@@ -2999,7 +3039,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>183</v>
       </c>
@@ -3010,7 +3050,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>166</v>
       </c>
@@ -3021,7 +3061,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>182</v>
       </c>
@@ -3032,7 +3072,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>174</v>
       </c>
@@ -3043,7 +3083,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>163</v>
       </c>
@@ -3054,7 +3094,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>170</v>
       </c>
@@ -3065,7 +3105,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>168</v>
       </c>
@@ -3076,7 +3116,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>176</v>
       </c>
@@ -3087,7 +3127,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>177</v>
       </c>
@@ -3098,7 +3138,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>54</v>
       </c>
@@ -3109,7 +3149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>100</v>
       </c>
@@ -3120,7 +3160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>136</v>
       </c>
@@ -3131,7 +3171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>190</v>
       </c>
@@ -3142,7 +3182,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>97</v>
       </c>
@@ -3153,7 +3193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>42</v>
       </c>
@@ -3164,7 +3204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>138</v>
       </c>
@@ -3175,7 +3215,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
@@ -3186,7 +3226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -3197,7 +3237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>137</v>
       </c>
@@ -3208,7 +3248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>51</v>
       </c>
@@ -3219,7 +3259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>197</v>
       </c>
@@ -3230,7 +3270,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>65</v>
       </c>
@@ -3241,7 +3281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>201</v>
       </c>
@@ -3252,7 +3292,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>87</v>
       </c>
@@ -3263,7 +3303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>60</v>
       </c>
@@ -3274,7 +3314,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>202</v>
       </c>
@@ -3285,7 +3325,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="s">
         <v>133</v>
       </c>
@@ -3296,7 +3336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
         <v>212</v>
       </c>
@@ -3307,7 +3347,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>45</v>
       </c>
@@ -3318,7 +3358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>188</v>
       </c>
@@ -3329,7 +3369,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>30</v>
       </c>
@@ -3340,7 +3380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>33</v>
       </c>
@@ -3351,7 +3391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>76</v>
       </c>
@@ -3362,7 +3402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>94</v>
       </c>
@@ -3373,7 +3413,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>73</v>
       </c>
@@ -3384,7 +3424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>91</v>
       </c>
@@ -3395,7 +3435,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>152</v>
       </c>
@@ -3406,7 +3446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>57</v>
       </c>
@@ -3417,7 +3457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>48</v>
       </c>
@@ -3428,7 +3468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
@@ -3439,7 +3479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>20</v>
       </c>
@@ -3450,7 +3490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>130</v>
       </c>
@@ -3461,7 +3501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>130</v>
       </c>
@@ -3472,7 +3512,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>79</v>
       </c>
@@ -3483,7 +3523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>82</v>
       </c>
@@ -3494,7 +3534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>198</v>
       </c>
@@ -3505,7 +3545,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>69</v>
       </c>
@@ -3516,7 +3556,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>14</v>
       </c>
@@ -3527,7 +3567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>107</v>
       </c>
